--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slpi</t>
+  </si>
+  <si>
+    <t>Plscr4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slpi</t>
-  </si>
-  <si>
-    <t>Plscr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H2">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I2">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J2">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.91924</v>
+        <v>15.0260635</v>
       </c>
       <c r="N2">
-        <v>27.83848</v>
+        <v>30.052127</v>
       </c>
       <c r="O2">
-        <v>0.3453293725850097</v>
+        <v>0.4986881695742361</v>
       </c>
       <c r="P2">
-        <v>0.274317062014216</v>
+        <v>0.4333458011771089</v>
       </c>
       <c r="Q2">
-        <v>8.466043668239999</v>
+        <v>2.31671095739825</v>
       </c>
       <c r="R2">
-        <v>50.79626200943999</v>
+        <v>9.266843829593</v>
       </c>
       <c r="S2">
-        <v>0.03353249647811592</v>
+        <v>0.0008836522337552127</v>
       </c>
       <c r="T2">
-        <v>0.02686537687542535</v>
+        <v>0.0005122149384627621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H3">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I3">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J3">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>22.394791</v>
       </c>
       <c r="O3">
-        <v>0.1852011825646233</v>
+        <v>0.2477476848097435</v>
       </c>
       <c r="P3">
-        <v>0.2206755998007939</v>
+        <v>0.3229285117851694</v>
       </c>
       <c r="Q3">
-        <v>4.540364716921999</v>
+        <v>1.150939226328167</v>
       </c>
       <c r="R3">
-        <v>40.86328245229799</v>
+        <v>6.905635357969</v>
       </c>
       <c r="S3">
-        <v>0.01798357885285983</v>
+        <v>0.0004389973703942516</v>
       </c>
       <c r="T3">
-        <v>0.02161197379531439</v>
+        <v>0.0003817016510662098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H4">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I4">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J4">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8397609999999999</v>
+        <v>0.2560376666666667</v>
       </c>
       <c r="N4">
-        <v>2.519283</v>
+        <v>0.7681129999999999</v>
       </c>
       <c r="O4">
-        <v>0.02083404979376463</v>
+        <v>0.00849743216725115</v>
       </c>
       <c r="P4">
-        <v>0.02482471424238536</v>
+        <v>0.01107603942241934</v>
       </c>
       <c r="Q4">
-        <v>0.510764473986</v>
+        <v>0.03947575942783333</v>
       </c>
       <c r="R4">
-        <v>4.596880265874</v>
+        <v>0.236854556567</v>
       </c>
       <c r="S4">
-        <v>0.002023047434698957</v>
+        <v>1.505705443581232E-05</v>
       </c>
       <c r="T4">
-        <v>0.002431220643183543</v>
+        <v>1.309188374677931E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H5">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I5">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J5">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.5193255</v>
+        <v>6.0184125</v>
       </c>
       <c r="N5">
-        <v>11.038651</v>
+        <v>12.036825</v>
       </c>
       <c r="O5">
-        <v>0.1369317011566325</v>
+        <v>0.1997403453917057</v>
       </c>
       <c r="P5">
-        <v>0.1087735505286311</v>
+        <v>0.1735686653145601</v>
       </c>
       <c r="Q5">
-        <v>3.356997271563</v>
+        <v>0.92791583004375</v>
       </c>
       <c r="R5">
-        <v>20.141983629378</v>
+        <v>3.711663320175</v>
       </c>
       <c r="S5">
-        <v>0.01329647041723006</v>
+        <v>0.0003539305986085641</v>
       </c>
       <c r="T5">
-        <v>0.01065279136329609</v>
+        <v>0.0002051582430974699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H6">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I6">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J6">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.485608</v>
+        <v>0.08815966666666668</v>
       </c>
       <c r="N6">
-        <v>34.456824</v>
+        <v>0.264479</v>
       </c>
       <c r="O6">
-        <v>0.2849521816131749</v>
+        <v>0.002925861640360751</v>
       </c>
       <c r="P6">
-        <v>0.3395334345129808</v>
+        <v>0.003813735518604743</v>
       </c>
       <c r="Q6">
-        <v>6.985845411408</v>
+        <v>0.01359241332683333</v>
       </c>
       <c r="R6">
-        <v>62.872608702672</v>
+        <v>0.081554479961</v>
       </c>
       <c r="S6">
-        <v>0.02766969387761257</v>
+        <v>5.184490693594832E-06</v>
       </c>
       <c r="T6">
-        <v>0.03325237450788266</v>
+        <v>4.507837156075272E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H7">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I7">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J7">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.078277</v>
+        <v>1.277577333333333</v>
       </c>
       <c r="N7">
-        <v>3.234831</v>
+        <v>3.832732</v>
       </c>
       <c r="O7">
-        <v>0.02675151228679487</v>
+        <v>0.04240050641670279</v>
       </c>
       <c r="P7">
-        <v>0.03187563890099274</v>
+        <v>0.05526724678213768</v>
       </c>
       <c r="Q7">
-        <v>0.6558361066020001</v>
+        <v>0.1969762344646667</v>
       </c>
       <c r="R7">
-        <v>5.902524959418001</v>
+        <v>1.181857406788</v>
       </c>
       <c r="S7">
-        <v>0.00259765042523395</v>
+        <v>7.513172457943014E-05</v>
       </c>
       <c r="T7">
-        <v>0.003121756430067628</v>
+        <v>6.532591139137204E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H8">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I8">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J8">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.91924</v>
+        <v>15.0260635</v>
       </c>
       <c r="N8">
-        <v>27.83848</v>
+        <v>30.052127</v>
       </c>
       <c r="O8">
-        <v>0.3453293725850097</v>
+        <v>0.4986881695742361</v>
       </c>
       <c r="P8">
-        <v>0.274317062014216</v>
+        <v>0.4333458011771089</v>
       </c>
       <c r="Q8">
-        <v>53.87261819829332</v>
+        <v>9.139242498351001</v>
       </c>
       <c r="R8">
-        <v>323.23570918976</v>
+        <v>54.835454990106</v>
       </c>
       <c r="S8">
-        <v>0.2133798797634484</v>
+        <v>0.003485938555566713</v>
       </c>
       <c r="T8">
-        <v>0.1709544915994897</v>
+        <v>0.003030971463405823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H9">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I9">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J9">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>22.394791</v>
       </c>
       <c r="O9">
-        <v>0.1852011825646233</v>
+        <v>0.2477476848097435</v>
       </c>
       <c r="P9">
-        <v>0.2206755998007939</v>
+        <v>0.3229285117851694</v>
       </c>
       <c r="Q9">
-        <v>28.89204739084355</v>
+        <v>4.540364716921999</v>
       </c>
       <c r="R9">
-        <v>260.028426517592</v>
+        <v>40.86328245229799</v>
       </c>
       <c r="S9">
-        <v>0.1144362721649447</v>
+        <v>0.00173181009541096</v>
       </c>
       <c r="T9">
-        <v>0.1375251130766417</v>
+        <v>0.00225867448417004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H10">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I10">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J10">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.8397609999999999</v>
+        <v>0.2560376666666667</v>
       </c>
       <c r="N10">
-        <v>2.519283</v>
+        <v>0.7681129999999999</v>
       </c>
       <c r="O10">
-        <v>0.02083404979376463</v>
+        <v>0.00849743216725115</v>
       </c>
       <c r="P10">
-        <v>0.02482471424238536</v>
+        <v>0.01107603942241934</v>
       </c>
       <c r="Q10">
-        <v>3.250186341410666</v>
+        <v>0.155728765846</v>
       </c>
       <c r="R10">
-        <v>29.251677072696</v>
+        <v>1.401558892614</v>
       </c>
       <c r="S10">
-        <v>0.01287341127892278</v>
+        <v>5.939889538671733E-05</v>
       </c>
       <c r="T10">
-        <v>0.01547077083447937</v>
+        <v>7.746967739325195E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H11">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I11">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J11">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.5193255</v>
+        <v>6.0184125</v>
       </c>
       <c r="N11">
-        <v>11.038651</v>
+        <v>12.036825</v>
       </c>
       <c r="O11">
-        <v>0.1369317011566325</v>
+        <v>0.1997403453917057</v>
       </c>
       <c r="P11">
-        <v>0.1087735505286311</v>
+        <v>0.1735686653145601</v>
       </c>
       <c r="Q11">
-        <v>21.36183551498533</v>
+        <v>3.660554961225</v>
       </c>
       <c r="R11">
-        <v>128.171013089912</v>
+        <v>21.96332976735</v>
       </c>
       <c r="S11">
-        <v>0.08461043933184102</v>
+        <v>0.001396228371925532</v>
       </c>
       <c r="T11">
-        <v>0.067787715767858</v>
+        <v>0.001213999697426069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H12">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I12">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J12">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.485608</v>
+        <v>0.08815966666666668</v>
       </c>
       <c r="N12">
-        <v>34.456824</v>
+        <v>0.264479</v>
       </c>
       <c r="O12">
-        <v>0.2849521816131749</v>
+        <v>0.002925861640360751</v>
       </c>
       <c r="P12">
-        <v>0.3395334345129808</v>
+        <v>0.003813735518604743</v>
       </c>
       <c r="Q12">
-        <v>44.45356029203199</v>
+        <v>0.05362100141800001</v>
       </c>
       <c r="R12">
-        <v>400.082042628288</v>
+        <v>0.4825890127620001</v>
       </c>
       <c r="S12">
-        <v>0.1760726630225573</v>
+        <v>2.045240798291868E-05</v>
       </c>
       <c r="T12">
-        <v>0.2115973583706114</v>
+        <v>2.66745945027488E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H13">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I13">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J13">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.078277</v>
+        <v>1.277577333333333</v>
       </c>
       <c r="N13">
-        <v>3.234831</v>
+        <v>3.832732</v>
       </c>
       <c r="O13">
-        <v>0.02675151228679487</v>
+        <v>0.04240050641670279</v>
       </c>
       <c r="P13">
-        <v>0.03187563890099274</v>
+        <v>0.05526724678213768</v>
       </c>
       <c r="Q13">
-        <v>4.173331671341334</v>
+        <v>0.7770557511440001</v>
       </c>
       <c r="R13">
-        <v>37.559985042072</v>
+        <v>6.993501760296001</v>
       </c>
       <c r="S13">
-        <v>0.0165298260976671</v>
+        <v>0.0002963887437308363</v>
       </c>
       <c r="T13">
-        <v>0.01986490961486652</v>
+        <v>0.0003865583730190654</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H14">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I14">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J14">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.91924</v>
+        <v>15.0260635</v>
       </c>
       <c r="N14">
-        <v>27.83848</v>
+        <v>30.052127</v>
       </c>
       <c r="O14">
-        <v>0.3453293725850097</v>
+        <v>0.4986881695742361</v>
       </c>
       <c r="P14">
-        <v>0.274317062014216</v>
+        <v>0.4333458011771089</v>
       </c>
       <c r="Q14">
-        <v>2.2235289938</v>
+        <v>183.4283761972223</v>
       </c>
       <c r="R14">
-        <v>8.894115975199998</v>
+        <v>1100.570257183334</v>
       </c>
       <c r="S14">
-        <v>0.008807003728707137</v>
+        <v>0.06996422831391812</v>
       </c>
       <c r="T14">
-        <v>0.004703963799601708</v>
+        <v>0.06083285063646817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H15">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I15">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J15">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>22.394791</v>
       </c>
       <c r="O15">
-        <v>0.1852011825646233</v>
+        <v>0.2477476848097435</v>
       </c>
       <c r="P15">
-        <v>0.2206755998007939</v>
+        <v>0.3229285117851694</v>
       </c>
       <c r="Q15">
-        <v>1.192485296098333</v>
+        <v>91.12699739813574</v>
       </c>
       <c r="R15">
-        <v>7.15491177659</v>
+        <v>820.1429765832218</v>
       </c>
       <c r="S15">
-        <v>0.004723222624238512</v>
+        <v>0.03475814475220514</v>
       </c>
       <c r="T15">
-        <v>0.003784124929365617</v>
+        <v>0.04533253090331748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H16">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I16">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J16">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8397609999999999</v>
+        <v>0.2560376666666667</v>
       </c>
       <c r="N16">
-        <v>2.519283</v>
+        <v>0.7681129999999999</v>
       </c>
       <c r="O16">
-        <v>0.02083404979376463</v>
+        <v>0.00849743216725115</v>
       </c>
       <c r="P16">
-        <v>0.02482471424238536</v>
+        <v>0.01107603942241934</v>
       </c>
       <c r="Q16">
-        <v>0.134147620945</v>
+        <v>3.125540727416221</v>
       </c>
       <c r="R16">
-        <v>0.8048857256699999</v>
+        <v>28.12986654674599</v>
       </c>
       <c r="S16">
-        <v>0.0005313349190202075</v>
+        <v>0.001192160393015079</v>
       </c>
       <c r="T16">
-        <v>0.0004256919211448322</v>
+        <v>0.00155484846050762</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H17">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I17">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J17">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.5193255</v>
+        <v>6.0184125</v>
       </c>
       <c r="N17">
-        <v>11.038651</v>
+        <v>12.036825</v>
       </c>
       <c r="O17">
-        <v>0.1369317011566325</v>
+        <v>0.1997403453917057</v>
       </c>
       <c r="P17">
-        <v>0.1087735505286311</v>
+        <v>0.1735686653145601</v>
       </c>
       <c r="Q17">
-        <v>0.8816846519975</v>
+        <v>73.46885178277499</v>
       </c>
       <c r="R17">
-        <v>3.52673860799</v>
+        <v>440.8131106966499</v>
       </c>
       <c r="S17">
-        <v>0.003492196431590258</v>
+        <v>0.02802288079225399</v>
       </c>
       <c r="T17">
-        <v>0.001865238860039672</v>
+        <v>0.02436547593993284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H18">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I18">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J18">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>11.485608</v>
+        <v>0.08815966666666668</v>
       </c>
       <c r="N18">
-        <v>34.456824</v>
+        <v>0.264479</v>
       </c>
       <c r="O18">
-        <v>0.2849521816131749</v>
+        <v>0.002925861640360751</v>
       </c>
       <c r="P18">
-        <v>0.3395334345129808</v>
+        <v>0.003813735518604743</v>
       </c>
       <c r="Q18">
-        <v>1.83476844996</v>
+        <v>1.076195671790889</v>
       </c>
       <c r="R18">
-        <v>11.00861069976</v>
+        <v>9.685761046117999</v>
       </c>
       <c r="S18">
-        <v>0.007267192208947364</v>
+        <v>0.000410488285687438</v>
       </c>
       <c r="T18">
-        <v>0.005822288168939084</v>
+        <v>0.0005353701421361113</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H19">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I19">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J19">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.078277</v>
+        <v>1.277577333333333</v>
       </c>
       <c r="N19">
-        <v>3.234831</v>
+        <v>3.832732</v>
       </c>
       <c r="O19">
-        <v>0.02675151228679487</v>
+        <v>0.04240050641670279</v>
       </c>
       <c r="P19">
-        <v>0.03187563890099274</v>
+        <v>0.05526724678213768</v>
       </c>
       <c r="Q19">
-        <v>0.172249359365</v>
+        <v>15.59583025319377</v>
       </c>
       <c r="R19">
-        <v>1.03349615619</v>
+        <v>140.362472278744</v>
       </c>
       <c r="S19">
-        <v>0.0006822491428827398</v>
+        <v>0.005948644649213681</v>
       </c>
       <c r="T19">
-        <v>0.0005466005299797042</v>
+        <v>0.007758386395931707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H20">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I20">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J20">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.91924</v>
+        <v>15.0260635</v>
       </c>
       <c r="N20">
-        <v>27.83848</v>
+        <v>30.052127</v>
       </c>
       <c r="O20">
-        <v>0.3453293725850097</v>
+        <v>0.4986881695742361</v>
       </c>
       <c r="P20">
-        <v>0.274317062014216</v>
+        <v>0.4333458011771089</v>
       </c>
       <c r="Q20">
-        <v>0.3895902481066666</v>
+        <v>1029.02863446379</v>
       </c>
       <c r="R20">
-        <v>2.33754148864</v>
+        <v>6174.171806782741</v>
       </c>
       <c r="S20">
-        <v>0.001543097831110167</v>
+        <v>0.3924975830662904</v>
       </c>
       <c r="T20">
-        <v>0.001236290438902489</v>
+        <v>0.341270781101384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H21">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I21">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J21">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>22.394791</v>
       </c>
       <c r="O21">
-        <v>0.1852011825646233</v>
+        <v>0.2477476848097435</v>
       </c>
       <c r="P21">
-        <v>0.2206755998007939</v>
+        <v>0.3229285117851694</v>
       </c>
       <c r="Q21">
-        <v>0.2089384234097778</v>
+        <v>511.2201919868984</v>
       </c>
       <c r="R21">
-        <v>1.880445810688</v>
+        <v>4600.981727882086</v>
       </c>
       <c r="S21">
-        <v>0.000827568014256178</v>
+        <v>0.1949923287354383</v>
       </c>
       <c r="T21">
-        <v>0.0009945394286799967</v>
+        <v>0.2543143723960785</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H22">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I22">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J22">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.8397609999999999</v>
+        <v>0.2560376666666667</v>
       </c>
       <c r="N22">
-        <v>2.519283</v>
+        <v>0.7681129999999999</v>
       </c>
       <c r="O22">
-        <v>0.02083404979376463</v>
+        <v>0.00849743216725115</v>
       </c>
       <c r="P22">
-        <v>0.02482471424238536</v>
+        <v>0.01107603942241934</v>
       </c>
       <c r="Q22">
-        <v>0.02350435054933333</v>
+        <v>17.53420584847755</v>
       </c>
       <c r="R22">
-        <v>0.211539154944</v>
+        <v>157.807852636298</v>
       </c>
       <c r="S22">
-        <v>9.309656114492637E-05</v>
+        <v>0.006687990193878734</v>
       </c>
       <c r="T22">
-        <v>0.0001118798686490634</v>
+        <v>0.008722661244048628</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H23">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I23">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J23">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.5193255</v>
+        <v>6.0184125</v>
       </c>
       <c r="N23">
-        <v>11.038651</v>
+        <v>12.036825</v>
       </c>
       <c r="O23">
-        <v>0.1369317011566325</v>
+        <v>0.1997403453917057</v>
       </c>
       <c r="P23">
-        <v>0.1087735505286311</v>
+        <v>0.1735686653145601</v>
       </c>
       <c r="Q23">
-        <v>0.1544822411946667</v>
+        <v>412.158433678575</v>
       </c>
       <c r="R23">
-        <v>0.926893447168</v>
+        <v>2472.95060207145</v>
       </c>
       <c r="S23">
-        <v>0.0006118767409888069</v>
+        <v>0.1572076652109151</v>
       </c>
       <c r="T23">
-        <v>0.0004902199649435386</v>
+        <v>0.136689714832187</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H24">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I24">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J24">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>11.485608</v>
+        <v>0.08815966666666668</v>
       </c>
       <c r="N24">
-        <v>34.456824</v>
+        <v>0.264479</v>
       </c>
       <c r="O24">
-        <v>0.2849521816131749</v>
+        <v>0.002925861640360751</v>
       </c>
       <c r="P24">
-        <v>0.3395334345129808</v>
+        <v>0.003813735518604743</v>
       </c>
       <c r="Q24">
-        <v>0.321474510848</v>
+        <v>6.037430988148223</v>
       </c>
       <c r="R24">
-        <v>2.893270597632</v>
+        <v>54.336878893334</v>
       </c>
       <c r="S24">
-        <v>0.001273303484513636</v>
+        <v>0.0023028290869792</v>
       </c>
       <c r="T24">
-        <v>0.001530207183227885</v>
+        <v>0.003003413199834839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H25">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I25">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J25">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.078277</v>
+        <v>1.277577333333333</v>
       </c>
       <c r="N25">
-        <v>3.234831</v>
+        <v>3.832732</v>
       </c>
       <c r="O25">
-        <v>0.02675151228679487</v>
+        <v>0.04240050641670279</v>
       </c>
       <c r="P25">
-        <v>0.03187563890099274</v>
+        <v>0.05526724678213768</v>
       </c>
       <c r="Q25">
-        <v>0.03018025437866667</v>
+        <v>87.49222035045246</v>
       </c>
       <c r="R25">
-        <v>0.271622289408</v>
+        <v>787.429983154072</v>
       </c>
       <c r="S25">
-        <v>0.0001195386314221163</v>
+        <v>0.03337174872937345</v>
       </c>
       <c r="T25">
-        <v>0.0001436569323025315</v>
+        <v>0.04352435497801103</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H26">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I26">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J26">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.91924</v>
+        <v>15.0260635</v>
       </c>
       <c r="N26">
-        <v>27.83848</v>
+        <v>30.052127</v>
       </c>
       <c r="O26">
-        <v>0.3453293725850097</v>
+        <v>0.4986881695742361</v>
       </c>
       <c r="P26">
-        <v>0.274317062014216</v>
+        <v>0.4333458011771089</v>
       </c>
       <c r="Q26">
-        <v>22.23449654132</v>
+        <v>83.52032541142616</v>
       </c>
       <c r="R26">
-        <v>133.40697924792</v>
+        <v>501.1219524685569</v>
       </c>
       <c r="S26">
-        <v>0.08806689478362814</v>
+        <v>0.03185676740470565</v>
       </c>
       <c r="T26">
-        <v>0.07055693930079662</v>
+        <v>0.02769898303738811</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H27">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I27">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J27">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>22.394791</v>
       </c>
       <c r="O27">
-        <v>0.1852011825646233</v>
+        <v>0.2477476848097435</v>
       </c>
       <c r="P27">
-        <v>0.2206755998007939</v>
+        <v>0.3229285117851694</v>
       </c>
       <c r="Q27">
-        <v>11.92442745995433</v>
+        <v>41.49279753899788</v>
       </c>
       <c r="R27">
-        <v>107.319847139589</v>
+        <v>373.4351778509809</v>
       </c>
       <c r="S27">
-        <v>0.04723054090832408</v>
+        <v>0.01582640385629488</v>
       </c>
       <c r="T27">
-        <v>0.05675984857079218</v>
+        <v>0.02064123235053718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H28">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I28">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J28">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.8397609999999999</v>
+        <v>0.2560376666666667</v>
       </c>
       <c r="N28">
-        <v>2.519283</v>
+        <v>0.7681129999999999</v>
       </c>
       <c r="O28">
-        <v>0.02083404979376463</v>
+        <v>0.00849743216725115</v>
       </c>
       <c r="P28">
-        <v>0.02482471424238536</v>
+        <v>0.01107603942241934</v>
       </c>
       <c r="Q28">
-        <v>1.341428343073</v>
+        <v>1.423150463698111</v>
       </c>
       <c r="R28">
-        <v>12.072855087657</v>
+        <v>12.808354173283</v>
       </c>
       <c r="S28">
-        <v>0.005313159599977755</v>
+        <v>0.0005428256305348075</v>
       </c>
       <c r="T28">
-        <v>0.006385150974928545</v>
+        <v>0.0007079681567230596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H29">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I29">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J29">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.5193255</v>
+        <v>6.0184125</v>
       </c>
       <c r="N29">
-        <v>11.038651</v>
+        <v>12.036825</v>
       </c>
       <c r="O29">
-        <v>0.1369317011566325</v>
+        <v>0.1997403453917057</v>
       </c>
       <c r="P29">
-        <v>0.1087735505286311</v>
+        <v>0.1735686653145601</v>
       </c>
       <c r="Q29">
-        <v>8.8165319184215</v>
+        <v>33.4525253710125</v>
       </c>
       <c r="R29">
-        <v>52.899191510529</v>
+        <v>200.715152226075</v>
       </c>
       <c r="S29">
-        <v>0.03492071823498236</v>
+        <v>0.01275964041800256</v>
       </c>
       <c r="T29">
-        <v>0.02797758457249383</v>
+        <v>0.0110943166019167</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H30">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I30">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J30">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>11.485608</v>
+        <v>0.08815966666666668</v>
       </c>
       <c r="N30">
-        <v>34.456824</v>
+        <v>0.264479</v>
       </c>
       <c r="O30">
-        <v>0.2849521816131749</v>
+        <v>0.002925861640360751</v>
       </c>
       <c r="P30">
-        <v>0.3395334345129808</v>
+        <v>0.003813735518604743</v>
       </c>
       <c r="Q30">
-        <v>18.347029819944</v>
+        <v>0.4900234880654444</v>
       </c>
       <c r="R30">
-        <v>165.123268379496</v>
+        <v>4.410211392589</v>
       </c>
       <c r="S30">
-        <v>0.072669329019544</v>
+        <v>0.0001869073690175995</v>
       </c>
       <c r="T30">
-        <v>0.08733120628231975</v>
+        <v>0.0002437697449749687</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H31">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I31">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J31">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.078277</v>
+        <v>1.277577333333333</v>
       </c>
       <c r="N31">
-        <v>3.234831</v>
+        <v>3.832732</v>
       </c>
       <c r="O31">
-        <v>0.02675151228679487</v>
+        <v>0.04240050641670279</v>
       </c>
       <c r="P31">
-        <v>0.03187563890099274</v>
+        <v>0.05526724678213768</v>
       </c>
       <c r="Q31">
-        <v>1.722432131861</v>
+        <v>7.101239430956888</v>
       </c>
       <c r="R31">
-        <v>15.501889186749</v>
+        <v>63.911154878612</v>
       </c>
       <c r="S31">
-        <v>0.006822247989588959</v>
+        <v>0.002708592569805398</v>
       </c>
       <c r="T31">
-        <v>0.008198715393776359</v>
+        <v>0.003532621123784503</v>
       </c>
     </row>
   </sheetData>
